--- a/output/sites/test_differences_nut_all_scenarios_Cap Noir.xlsx
+++ b/output/sites/test_differences_nut_all_scenarios_Cap Noir.xlsx
@@ -475,22 +475,22 @@
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="E3" t="n">
-        <v>0.987</v>
+        <v>0.878</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004</v>
+        <v>0.096</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="4">
@@ -504,22 +504,22 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.954</v>
+        <v>0.484</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="G4" t="n">
-        <v>0.026</v>
+        <v>0.474</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001</v>
+        <v>0.499</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="5">
@@ -533,22 +533,22 @@
         <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.025</v>
+        <v>0.951</v>
       </c>
       <c r="E5" t="n">
-        <v>0.897</v>
+        <v>0.122</v>
       </c>
       <c r="F5" t="n">
-        <v>0.019</v>
+        <v>0.987</v>
       </c>
       <c r="G5" t="n">
-        <v>0.077</v>
+        <v>0.882</v>
       </c>
       <c r="H5" t="n">
-        <v>0.018</v>
+        <v>0.978</v>
       </c>
       <c r="I5" t="n">
-        <v>0.012</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="6">
@@ -562,22 +562,22 @@
         <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.146</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.725</v>
+        <v>0.012</v>
       </c>
       <c r="F6" t="n">
-        <v>0.121</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.218</v>
+        <v>0.992</v>
       </c>
       <c r="H6" t="n">
-        <v>0.128</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -591,22 +591,22 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.502</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.472</v>
+        <v>0.001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.499</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.497</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.501</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -620,22 +620,22 @@
         <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>0.893</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.934</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.811</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.933</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -649,22 +649,22 @@
         <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.983</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -681,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -797,16 +797,16 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.42</v>
+        <v>0.447</v>
       </c>
       <c r="F14" t="n">
-        <v>0.683</v>
+        <v>0.597</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.196</v>
+        <v>0.348</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -823,22 +823,22 @@
         <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.511</v>
       </c>
       <c r="E15" t="n">
-        <v>0.426</v>
+        <v>0.494</v>
       </c>
       <c r="F15" t="n">
-        <v>0.66</v>
+        <v>0.495</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.513</v>
       </c>
       <c r="H15" t="n">
-        <v>0.255</v>
+        <v>0.507</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="16">
@@ -852,22 +852,22 @@
         <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.441</v>
+        <v>0.529</v>
       </c>
       <c r="F16" t="n">
-        <v>0.634</v>
+        <v>0.443</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.305</v>
+        <v>0.656</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -881,22 +881,22 @@
         <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>0.997</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.464</v>
+        <v>0.539</v>
       </c>
       <c r="F17" t="n">
-        <v>0.546</v>
+        <v>0.358</v>
       </c>
       <c r="G17" t="n">
-        <v>0.985</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.404</v>
+        <v>0.788</v>
       </c>
       <c r="I17" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -910,22 +910,22 @@
         <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>0.502</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.483</v>
+        <v>0.568</v>
       </c>
       <c r="F18" t="n">
-        <v>0.485</v>
+        <v>0.316</v>
       </c>
       <c r="G18" t="n">
-        <v>0.508</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.505</v>
+        <v>0.867</v>
       </c>
       <c r="I18" t="n">
-        <v>0.502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -939,19 +939,19 @@
         <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.503</v>
+        <v>0.59</v>
       </c>
       <c r="F19" t="n">
-        <v>0.458</v>
+        <v>0.277</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.602</v>
+        <v>0.905</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -971,16 +971,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.539</v>
+        <v>0.627</v>
       </c>
       <c r="F20" t="n">
-        <v>0.388</v>
+        <v>0.266</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.765</v>
+        <v>0.943</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.57</v>
+        <v>0.646</v>
       </c>
       <c r="F21" t="n">
-        <v>0.323</v>
+        <v>0.229</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.852</v>
+        <v>0.977</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.625</v>
+        <v>0.658</v>
       </c>
       <c r="F22" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.947</v>
+        <v>0.978</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1113,22 +1113,22 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>0.054</v>
+        <v>0.186</v>
       </c>
       <c r="E25" t="n">
-        <v>0.905</v>
+        <v>0.786</v>
       </c>
       <c r="F25" t="n">
-        <v>0.952</v>
+        <v>0.832</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="H25" t="n">
-        <v>0.429</v>
+        <v>0.455</v>
       </c>
       <c r="I25" t="n">
-        <v>0.119</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="26">
@@ -1142,22 +1142,22 @@
         <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>0.103</v>
+        <v>0.511</v>
       </c>
       <c r="E26" t="n">
-        <v>0.859</v>
+        <v>0.478</v>
       </c>
       <c r="F26" t="n">
-        <v>0.897</v>
+        <v>0.491</v>
       </c>
       <c r="G26" t="n">
-        <v>0.119</v>
+        <v>0.507</v>
       </c>
       <c r="H26" t="n">
-        <v>0.429</v>
+        <v>0.502</v>
       </c>
       <c r="I26" t="n">
-        <v>0.173</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="27">
@@ -1171,22 +1171,22 @@
         <v>13</v>
       </c>
       <c r="D27" t="n">
-        <v>0.166</v>
+        <v>0.811</v>
       </c>
       <c r="E27" t="n">
-        <v>0.78</v>
+        <v>0.209</v>
       </c>
       <c r="F27" t="n">
-        <v>0.812</v>
+        <v>0.209</v>
       </c>
       <c r="G27" t="n">
-        <v>0.171</v>
+        <v>0.819</v>
       </c>
       <c r="H27" t="n">
-        <v>0.467</v>
+        <v>0.548</v>
       </c>
       <c r="I27" t="n">
-        <v>0.226</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="28">
@@ -1200,22 +1200,22 @@
         <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>0.298</v>
+        <v>0.964</v>
       </c>
       <c r="E28" t="n">
-        <v>0.637</v>
+        <v>0.055</v>
       </c>
       <c r="F28" t="n">
-        <v>0.694</v>
+        <v>0.049</v>
       </c>
       <c r="G28" t="n">
-        <v>0.313</v>
+        <v>0.956</v>
       </c>
       <c r="H28" t="n">
-        <v>0.49</v>
+        <v>0.583</v>
       </c>
       <c r="I28" t="n">
-        <v>0.349</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="29">
@@ -1229,22 +1229,22 @@
         <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>0.491</v>
+        <v>0.998</v>
       </c>
       <c r="E29" t="n">
-        <v>0.507</v>
+        <v>0.011</v>
       </c>
       <c r="F29" t="n">
-        <v>0.514</v>
+        <v>0.009</v>
       </c>
       <c r="G29" t="n">
-        <v>0.509</v>
+        <v>0.996</v>
       </c>
       <c r="H29" t="n">
-        <v>0.503</v>
+        <v>0.652</v>
       </c>
       <c r="I29" t="n">
-        <v>0.499</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="30">
@@ -1258,22 +1258,22 @@
         <v>16</v>
       </c>
       <c r="D30" t="n">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.275</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.267</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.739</v>
+        <v>0.999</v>
       </c>
       <c r="H30" t="n">
-        <v>0.523</v>
+        <v>0.681</v>
       </c>
       <c r="I30" t="n">
-        <v>0.678</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="31">
@@ -1287,22 +1287,22 @@
         <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>0.945</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.087</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.078</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.928</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.586</v>
+        <v>0.739</v>
       </c>
       <c r="I31" t="n">
-        <v>0.876</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="32">
@@ -1316,22 +1316,22 @@
         <v>18</v>
       </c>
       <c r="D32" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.634</v>
+        <v>0.784</v>
       </c>
       <c r="I32" t="n">
-        <v>0.983</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.736</v>
+        <v>0.825</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -1432,22 +1432,22 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>0.022</v>
+        <v>0.116</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001</v>
+        <v>0.025</v>
       </c>
       <c r="F36" t="n">
-        <v>0.951</v>
+        <v>0.842</v>
       </c>
       <c r="G36" t="n">
-        <v>0.007</v>
+        <v>0.071</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="I36" t="n">
-        <v>0.021</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="37">
@@ -1461,22 +1461,22 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>0.063</v>
+        <v>0.491</v>
       </c>
       <c r="E37" t="n">
-        <v>0.007</v>
+        <v>0.479</v>
       </c>
       <c r="F37" t="n">
-        <v>0.914</v>
+        <v>0.49</v>
       </c>
       <c r="G37" t="n">
-        <v>0.024</v>
+        <v>0.499</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="I37" t="n">
-        <v>0.06</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="38">
@@ -1490,22 +1490,22 @@
         <v>13</v>
       </c>
       <c r="D38" t="n">
-        <v>0.092</v>
+        <v>0.907</v>
       </c>
       <c r="E38" t="n">
-        <v>0.027</v>
+        <v>0.966</v>
       </c>
       <c r="F38" t="n">
-        <v>0.84</v>
+        <v>0.174</v>
       </c>
       <c r="G38" t="n">
-        <v>0.062</v>
+        <v>0.933</v>
       </c>
       <c r="H38" t="n">
-        <v>0.998</v>
+        <v>0.004</v>
       </c>
       <c r="I38" t="n">
-        <v>0.091</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="39">
@@ -1519,22 +1519,22 @@
         <v>14</v>
       </c>
       <c r="D39" t="n">
-        <v>0.239</v>
+        <v>0.992</v>
       </c>
       <c r="E39" t="n">
-        <v>0.147</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.716</v>
+        <v>0.016</v>
       </c>
       <c r="G39" t="n">
-        <v>0.205</v>
+        <v>0.999</v>
       </c>
       <c r="H39" t="n">
-        <v>0.938</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.225</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="40">
@@ -1548,22 +1548,22 @@
         <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.481</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5</v>
+        <v>0.001</v>
       </c>
       <c r="G40" t="n">
-        <v>0.479</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.511</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1577,22 +1577,22 @@
         <v>16</v>
       </c>
       <c r="D41" t="n">
-        <v>0.814</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.913</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.216</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.864</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1606,22 +1606,22 @@
         <v>17</v>
       </c>
       <c r="D42" t="n">
-        <v>0.984</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.992</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.983</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">

--- a/output/sites/test_differences_nut_all_scenarios_Cap Noir.xlsx
+++ b/output/sites/test_differences_nut_all_scenarios_Cap Noir.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Site</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t xml:space="preserve">subscenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
   </si>
   <si>
     <t xml:space="preserve">Fe</t>
@@ -434,1263 +437,1395 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001</v>
+        <v>0.97</v>
       </c>
       <c r="E2" t="n">
-        <v>0.998</v>
+        <v>0.335</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.593</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003</v>
+        <v>0.372</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.381</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.367</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.322</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.032</v>
+        <v>0.81</v>
       </c>
       <c r="E3" t="n">
-        <v>0.878</v>
+        <v>0.455</v>
       </c>
       <c r="F3" t="n">
-        <v>0.022</v>
+        <v>0.581</v>
       </c>
       <c r="G3" t="n">
-        <v>0.096</v>
+        <v>0.481</v>
       </c>
       <c r="H3" t="n">
-        <v>0.014</v>
+        <v>0.478</v>
       </c>
       <c r="I3" t="n">
-        <v>0.018</v>
+        <v>0.464</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.441</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.579</v>
       </c>
       <c r="E4" t="n">
-        <v>0.484</v>
+        <v>0.587</v>
       </c>
       <c r="F4" t="n">
-        <v>0.51</v>
+        <v>0.581</v>
       </c>
       <c r="G4" t="n">
-        <v>0.474</v>
+        <v>0.584</v>
       </c>
       <c r="H4" t="n">
-        <v>0.499</v>
+        <v>0.584</v>
       </c>
       <c r="I4" t="n">
-        <v>0.514</v>
+        <v>0.581</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.951</v>
+        <v>0.387</v>
       </c>
       <c r="E5" t="n">
-        <v>0.122</v>
+        <v>0.697</v>
       </c>
       <c r="F5" t="n">
-        <v>0.987</v>
+        <v>0.58</v>
       </c>
       <c r="G5" t="n">
-        <v>0.882</v>
+        <v>0.682</v>
       </c>
       <c r="H5" t="n">
-        <v>0.978</v>
+        <v>0.676</v>
       </c>
       <c r="I5" t="n">
-        <v>0.966</v>
+        <v>0.694</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.705</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.228</v>
       </c>
       <c r="E6" t="n">
-        <v>0.012</v>
+        <v>0.808</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.573</v>
       </c>
       <c r="G6" t="n">
-        <v>0.992</v>
+        <v>0.771</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.763</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.781</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.832</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.136</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001</v>
+        <v>0.904</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.567</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.855</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.851</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.868</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.093</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.564</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.921</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.921</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.933</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.967</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.057</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.985</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.555</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.945</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.963</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.994</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.032</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.998</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.558</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0.977</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0.977</v>
       </c>
       <c r="I10" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.017</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.553</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="I11" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.552</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.388</v>
       </c>
       <c r="E13" t="n">
-        <v>0.373</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.718</v>
+        <v>0.573</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.607</v>
       </c>
       <c r="H13" t="n">
-        <v>0.173</v>
+        <v>0.951</v>
       </c>
       <c r="I13" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.497</v>
       </c>
       <c r="E14" t="n">
-        <v>0.447</v>
+        <v>0.879</v>
       </c>
       <c r="F14" t="n">
-        <v>0.597</v>
+        <v>0.578</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.592</v>
       </c>
       <c r="H14" t="n">
-        <v>0.348</v>
+        <v>0.77</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0.552</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.856</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>0.511</v>
+        <v>0.585</v>
       </c>
       <c r="E15" t="n">
-        <v>0.494</v>
+        <v>0.582</v>
       </c>
       <c r="F15" t="n">
-        <v>0.495</v>
+        <v>0.579</v>
       </c>
       <c r="G15" t="n">
-        <v>0.513</v>
+        <v>0.579</v>
       </c>
       <c r="H15" t="n">
-        <v>0.507</v>
+        <v>0.581</v>
       </c>
       <c r="I15" t="n">
-        <v>0.501</v>
+        <v>0.58</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.576</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="n">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="E16" t="n">
-        <v>0.529</v>
+        <v>0.357</v>
       </c>
       <c r="F16" t="n">
-        <v>0.443</v>
+        <v>0.58</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.581</v>
       </c>
       <c r="H16" t="n">
-        <v>0.656</v>
+        <v>0.431</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.604</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="E17" t="n">
-        <v>0.539</v>
+        <v>0.207</v>
       </c>
       <c r="F17" t="n">
-        <v>0.358</v>
+        <v>0.589</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.555</v>
       </c>
       <c r="H17" t="n">
-        <v>0.788</v>
+        <v>0.329</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.608</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.226</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.763</v>
       </c>
       <c r="E18" t="n">
-        <v>0.568</v>
+        <v>0.133</v>
       </c>
       <c r="F18" t="n">
-        <v>0.316</v>
+        <v>0.588</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.552</v>
       </c>
       <c r="H18" t="n">
-        <v>0.867</v>
+        <v>0.239</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.623</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.792</v>
       </c>
       <c r="E19" t="n">
-        <v>0.59</v>
+        <v>0.094</v>
       </c>
       <c r="F19" t="n">
-        <v>0.277</v>
+        <v>0.589</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.548</v>
       </c>
       <c r="H19" t="n">
-        <v>0.905</v>
+        <v>0.198</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.64</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.112</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.839</v>
       </c>
       <c r="E20" t="n">
-        <v>0.627</v>
+        <v>0.057</v>
       </c>
       <c r="F20" t="n">
-        <v>0.266</v>
+        <v>0.592</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.555</v>
       </c>
       <c r="H20" t="n">
-        <v>0.943</v>
+        <v>0.156</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.648</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.863</v>
       </c>
       <c r="E21" t="n">
-        <v>0.646</v>
+        <v>0.046</v>
       </c>
       <c r="F21" t="n">
-        <v>0.229</v>
+        <v>0.591</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.551</v>
       </c>
       <c r="H21" t="n">
-        <v>0.977</v>
+        <v>0.136</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.651</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.058</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.894</v>
       </c>
       <c r="E22" t="n">
-        <v>0.658</v>
+        <v>0.032</v>
       </c>
       <c r="F22" t="n">
-        <v>0.22</v>
+        <v>0.594</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.542</v>
       </c>
       <c r="H22" t="n">
-        <v>0.978</v>
+        <v>0.109</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.67</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.043</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="n">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.905</v>
       </c>
       <c r="E23" t="n">
-        <v>0.682</v>
+        <v>0.02</v>
       </c>
       <c r="F23" t="n">
-        <v>0.204</v>
+        <v>0.601</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.533</v>
       </c>
       <c r="H23" t="n">
-        <v>0.992</v>
+        <v>0.094</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.669</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.039</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" t="n">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>0.041</v>
+        <v>0.394</v>
       </c>
       <c r="E24" t="n">
-        <v>0.939</v>
+        <v>0.408</v>
       </c>
       <c r="F24" t="n">
-        <v>0.968</v>
+        <v>0.666</v>
       </c>
       <c r="G24" t="n">
-        <v>0.044</v>
+        <v>0.683</v>
       </c>
       <c r="H24" t="n">
-        <v>0.432</v>
+        <v>0.543</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1</v>
+        <v>0.629</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.463</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" t="n">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>0.186</v>
+        <v>0.483</v>
       </c>
       <c r="E25" t="n">
-        <v>0.786</v>
+        <v>0.484</v>
       </c>
       <c r="F25" t="n">
-        <v>0.832</v>
+        <v>0.626</v>
       </c>
       <c r="G25" t="n">
-        <v>0.19</v>
+        <v>0.63</v>
       </c>
       <c r="H25" t="n">
-        <v>0.455</v>
+        <v>0.568</v>
       </c>
       <c r="I25" t="n">
-        <v>0.251</v>
+        <v>0.609</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.522</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" t="n">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="n">
-        <v>0.511</v>
+        <v>0.586</v>
       </c>
       <c r="E26" t="n">
-        <v>0.478</v>
+        <v>0.57</v>
       </c>
       <c r="F26" t="n">
-        <v>0.491</v>
+        <v>0.58</v>
       </c>
       <c r="G26" t="n">
-        <v>0.507</v>
+        <v>0.58</v>
       </c>
       <c r="H26" t="n">
-        <v>0.502</v>
+        <v>0.577</v>
       </c>
       <c r="I26" t="n">
-        <v>0.507</v>
+        <v>0.583</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.577</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" t="n">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>0.811</v>
+        <v>0.676</v>
       </c>
       <c r="E27" t="n">
-        <v>0.209</v>
+        <v>0.657</v>
       </c>
       <c r="F27" t="n">
-        <v>0.209</v>
+        <v>0.548</v>
       </c>
       <c r="G27" t="n">
-        <v>0.819</v>
+        <v>0.537</v>
       </c>
       <c r="H27" t="n">
-        <v>0.548</v>
+        <v>0.6</v>
       </c>
       <c r="I27" t="n">
-        <v>0.76</v>
+        <v>0.555</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.625</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B28" t="n">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>0.964</v>
+        <v>0.77</v>
       </c>
       <c r="E28" t="n">
-        <v>0.055</v>
+        <v>0.727</v>
       </c>
       <c r="F28" t="n">
-        <v>0.049</v>
+        <v>0.507</v>
       </c>
       <c r="G28" t="n">
-        <v>0.956</v>
+        <v>0.497</v>
       </c>
       <c r="H28" t="n">
-        <v>0.583</v>
+        <v>0.615</v>
       </c>
       <c r="I28" t="n">
-        <v>0.921</v>
+        <v>0.533</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" t="n">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" t="n">
-        <v>0.998</v>
+        <v>0.833</v>
       </c>
       <c r="E29" t="n">
-        <v>0.011</v>
+        <v>0.803</v>
       </c>
       <c r="F29" t="n">
-        <v>0.009</v>
+        <v>0.487</v>
       </c>
       <c r="G29" t="n">
-        <v>0.996</v>
+        <v>0.459</v>
       </c>
       <c r="H29" t="n">
-        <v>0.652</v>
+        <v>0.632</v>
       </c>
       <c r="I29" t="n">
-        <v>0.977</v>
+        <v>0.518</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.717</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" t="n">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.908</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.863</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.462</v>
       </c>
       <c r="G30" t="n">
-        <v>0.999</v>
+        <v>0.434</v>
       </c>
       <c r="H30" t="n">
-        <v>0.681</v>
+        <v>0.641</v>
       </c>
       <c r="I30" t="n">
-        <v>0.997</v>
+        <v>0.495</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.755</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" t="n">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.941</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.914</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.439</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.403</v>
       </c>
       <c r="H31" t="n">
-        <v>0.739</v>
+        <v>0.658</v>
       </c>
       <c r="I31" t="n">
-        <v>0.998</v>
+        <v>0.479</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.794</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" t="n">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.968</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.412</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.377</v>
       </c>
       <c r="H32" t="n">
-        <v>0.784</v>
+        <v>0.663</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0.464</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.822</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" t="n">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.984</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.963</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.397</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0.345</v>
       </c>
       <c r="H33" t="n">
-        <v>0.825</v>
+        <v>0.673</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0.456</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.864</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34" t="n">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.372</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0.327</v>
       </c>
       <c r="H34" t="n">
-        <v>0.842</v>
+        <v>0.682</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0.441</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.892</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" t="n">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>0.007</v>
+        <v>0.502</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.474</v>
       </c>
       <c r="F35" t="n">
-        <v>0.971</v>
+        <v>0.515</v>
       </c>
       <c r="G35" t="n">
-        <v>0.002</v>
+        <v>0.673</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.485</v>
       </c>
       <c r="I35" t="n">
-        <v>0.004</v>
+        <v>0.775</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.472</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" t="n">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>0.116</v>
+        <v>0.544</v>
       </c>
       <c r="E36" t="n">
-        <v>0.025</v>
+        <v>0.519</v>
       </c>
       <c r="F36" t="n">
-        <v>0.842</v>
+        <v>0.542</v>
       </c>
       <c r="G36" t="n">
-        <v>0.071</v>
+        <v>0.624</v>
       </c>
       <c r="H36" t="n">
-        <v>0.996</v>
+        <v>0.533</v>
       </c>
       <c r="I36" t="n">
-        <v>0.099</v>
+        <v>0.685</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.522</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" t="n">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="n">
-        <v>0.491</v>
+        <v>0.579</v>
       </c>
       <c r="E37" t="n">
-        <v>0.479</v>
+        <v>0.582</v>
       </c>
       <c r="F37" t="n">
-        <v>0.49</v>
+        <v>0.582</v>
       </c>
       <c r="G37" t="n">
-        <v>0.499</v>
+        <v>0.587</v>
       </c>
       <c r="H37" t="n">
-        <v>0.49</v>
+        <v>0.582</v>
       </c>
       <c r="I37" t="n">
-        <v>0.487</v>
+        <v>0.579</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.577</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38" t="n">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="n">
-        <v>0.907</v>
+        <v>0.634</v>
       </c>
       <c r="E38" t="n">
-        <v>0.966</v>
+        <v>0.654</v>
       </c>
       <c r="F38" t="n">
-        <v>0.174</v>
+        <v>0.623</v>
       </c>
       <c r="G38" t="n">
-        <v>0.933</v>
+        <v>0.526</v>
       </c>
       <c r="H38" t="n">
-        <v>0.004</v>
+        <v>0.645</v>
       </c>
       <c r="I38" t="n">
-        <v>0.907</v>
+        <v>0.469</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.653</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39" t="n">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>0.992</v>
+        <v>0.678</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0.715</v>
       </c>
       <c r="F39" t="n">
-        <v>0.016</v>
+        <v>0.674</v>
       </c>
       <c r="G39" t="n">
-        <v>0.999</v>
+        <v>0.483</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I39" t="n">
-        <v>0.994</v>
+        <v>0.368</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.722</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" t="n">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.762</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0.801</v>
       </c>
       <c r="F40" t="n">
-        <v>0.001</v>
+        <v>0.717</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0.423</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.761</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0.248</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.803</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41" t="n">
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.823</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>0.781</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0.357</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.846</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0.17</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.892</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B42" t="n">
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.838</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.289</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.919</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0.101</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B43" t="n">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0.956</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.911</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.233</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.964</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0.055</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.995</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B44" t="n">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.954</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0.166</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.996</v>
       </c>
       <c r="I44" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="J44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" t="n">
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1699,15 +1834,18 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.988</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0.113</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J45" t="n">
         <v>1</v>
       </c>
     </row>

--- a/output/sites/test_differences_nut_all_scenarios_Cap Noir.xlsx
+++ b/output/sites/test_differences_nut_all_scenarios_Cap Noir.xlsx
@@ -484,25 +484,25 @@
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.81</v>
+        <v>0.864</v>
       </c>
       <c r="E3" t="n">
-        <v>0.455</v>
+        <v>0.426</v>
       </c>
       <c r="F3" t="n">
-        <v>0.581</v>
+        <v>0.587</v>
       </c>
       <c r="G3" t="n">
-        <v>0.481</v>
+        <v>0.457</v>
       </c>
       <c r="H3" t="n">
-        <v>0.478</v>
+        <v>0.45</v>
       </c>
       <c r="I3" t="n">
-        <v>0.464</v>
+        <v>0.447</v>
       </c>
       <c r="J3" t="n">
-        <v>0.441</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="4">
@@ -516,25 +516,25 @@
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.579</v>
+        <v>0.679</v>
       </c>
       <c r="E4" t="n">
-        <v>0.587</v>
+        <v>0.523</v>
       </c>
       <c r="F4" t="n">
-        <v>0.581</v>
+        <v>0.591</v>
       </c>
       <c r="G4" t="n">
-        <v>0.584</v>
+        <v>0.548</v>
       </c>
       <c r="H4" t="n">
-        <v>0.584</v>
+        <v>0.537</v>
       </c>
       <c r="I4" t="n">
-        <v>0.581</v>
+        <v>0.533</v>
       </c>
       <c r="J4" t="n">
-        <v>0.58</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="5">
@@ -548,25 +548,25 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.387</v>
+        <v>0.492</v>
       </c>
       <c r="E5" t="n">
-        <v>0.697</v>
+        <v>0.631</v>
       </c>
       <c r="F5" t="n">
-        <v>0.58</v>
+        <v>0.585</v>
       </c>
       <c r="G5" t="n">
-        <v>0.682</v>
+        <v>0.628</v>
       </c>
       <c r="H5" t="n">
-        <v>0.676</v>
+        <v>0.626</v>
       </c>
       <c r="I5" t="n">
-        <v>0.694</v>
+        <v>0.637</v>
       </c>
       <c r="J5" t="n">
-        <v>0.705</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="6">
@@ -580,25 +580,25 @@
         <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.228</v>
+        <v>0.328</v>
       </c>
       <c r="E6" t="n">
-        <v>0.808</v>
+        <v>0.736</v>
       </c>
       <c r="F6" t="n">
-        <v>0.573</v>
+        <v>0.576</v>
       </c>
       <c r="G6" t="n">
-        <v>0.771</v>
+        <v>0.714</v>
       </c>
       <c r="H6" t="n">
-        <v>0.763</v>
+        <v>0.707</v>
       </c>
       <c r="I6" t="n">
-        <v>0.781</v>
+        <v>0.725</v>
       </c>
       <c r="J6" t="n">
-        <v>0.832</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>0.136</v>
+        <v>0.199</v>
       </c>
       <c r="E7" t="n">
-        <v>0.904</v>
+        <v>0.838</v>
       </c>
       <c r="F7" t="n">
-        <v>0.567</v>
+        <v>0.572</v>
       </c>
       <c r="G7" t="n">
-        <v>0.855</v>
+        <v>0.786</v>
       </c>
       <c r="H7" t="n">
-        <v>0.851</v>
+        <v>0.792</v>
       </c>
       <c r="I7" t="n">
-        <v>0.868</v>
+        <v>0.803</v>
       </c>
       <c r="J7" t="n">
-        <v>0.91</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="8">
@@ -644,25 +644,25 @@
         <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>0.093</v>
+        <v>0.122</v>
       </c>
       <c r="E8" t="n">
-        <v>0.95</v>
+        <v>0.923</v>
       </c>
       <c r="F8" t="n">
-        <v>0.564</v>
+        <v>0.566</v>
       </c>
       <c r="G8" t="n">
-        <v>0.921</v>
+        <v>0.874</v>
       </c>
       <c r="H8" t="n">
-        <v>0.921</v>
+        <v>0.878</v>
       </c>
       <c r="I8" t="n">
-        <v>0.933</v>
+        <v>0.888</v>
       </c>
       <c r="J8" t="n">
-        <v>0.967</v>
+        <v>0.934</v>
       </c>
     </row>
     <row r="9">
@@ -676,25 +676,25 @@
         <v>18</v>
       </c>
       <c r="D9" t="n">
-        <v>0.057</v>
+        <v>0.081</v>
       </c>
       <c r="E9" t="n">
-        <v>0.985</v>
+        <v>0.966</v>
       </c>
       <c r="F9" t="n">
-        <v>0.555</v>
+        <v>0.562</v>
       </c>
       <c r="G9" t="n">
-        <v>0.945</v>
+        <v>0.926</v>
       </c>
       <c r="H9" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="I9" t="n">
-        <v>0.963</v>
+        <v>0.942</v>
       </c>
       <c r="J9" t="n">
-        <v>0.994</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="10">
@@ -708,25 +708,25 @@
         <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>0.032</v>
+        <v>0.043</v>
       </c>
       <c r="E10" t="n">
-        <v>0.998</v>
+        <v>0.995</v>
       </c>
       <c r="F10" t="n">
-        <v>0.558</v>
+        <v>0.56</v>
       </c>
       <c r="G10" t="n">
-        <v>0.977</v>
+        <v>0.963</v>
       </c>
       <c r="H10" t="n">
-        <v>0.977</v>
+        <v>0.966</v>
       </c>
       <c r="I10" t="n">
-        <v>0.985</v>
+        <v>0.972</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="11">
@@ -740,7 +740,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -749,13 +749,13 @@
         <v>0.553</v>
       </c>
       <c r="G11" t="n">
-        <v>0.992</v>
+        <v>0.987</v>
       </c>
       <c r="H11" t="n">
-        <v>0.992</v>
+        <v>0.987</v>
       </c>
       <c r="I11" t="n">
-        <v>0.998</v>
+        <v>0.994</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -804,22 +804,22 @@
         <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>0.388</v>
+        <v>0.094</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.573</v>
+        <v>0.715</v>
       </c>
       <c r="G13" t="n">
-        <v>0.607</v>
+        <v>0.815</v>
       </c>
       <c r="H13" t="n">
-        <v>0.951</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.523</v>
+        <v>0.587</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -836,25 +836,25 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>0.497</v>
+        <v>0.298</v>
       </c>
       <c r="E14" t="n">
-        <v>0.879</v>
+        <v>0.906</v>
       </c>
       <c r="F14" t="n">
-        <v>0.578</v>
+        <v>0.645</v>
       </c>
       <c r="G14" t="n">
-        <v>0.592</v>
+        <v>0.692</v>
       </c>
       <c r="H14" t="n">
-        <v>0.77</v>
+        <v>0.858</v>
       </c>
       <c r="I14" t="n">
-        <v>0.552</v>
+        <v>0.589</v>
       </c>
       <c r="J14" t="n">
-        <v>0.856</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="15">
@@ -868,25 +868,25 @@
         <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>0.585</v>
+        <v>0.492</v>
       </c>
       <c r="E15" t="n">
-        <v>0.582</v>
+        <v>0.673</v>
       </c>
       <c r="F15" t="n">
-        <v>0.579</v>
+        <v>0.599</v>
       </c>
       <c r="G15" t="n">
-        <v>0.579</v>
+        <v>0.611</v>
       </c>
       <c r="H15" t="n">
-        <v>0.581</v>
+        <v>0.659</v>
       </c>
       <c r="I15" t="n">
-        <v>0.58</v>
+        <v>0.576</v>
       </c>
       <c r="J15" t="n">
-        <v>0.576</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="16">
@@ -900,25 +900,25 @@
         <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>0.65</v>
+        <v>0.652</v>
       </c>
       <c r="E16" t="n">
-        <v>0.357</v>
+        <v>0.509</v>
       </c>
       <c r="F16" t="n">
-        <v>0.58</v>
+        <v>0.565</v>
       </c>
       <c r="G16" t="n">
+        <v>0.564</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.581</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.431</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.604</v>
-      </c>
       <c r="J16" t="n">
-        <v>0.38</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="17">
@@ -932,25 +932,25 @@
         <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>0.714</v>
+        <v>0.756</v>
       </c>
       <c r="E17" t="n">
-        <v>0.207</v>
+        <v>0.398</v>
       </c>
       <c r="F17" t="n">
-        <v>0.589</v>
+        <v>0.547</v>
       </c>
       <c r="G17" t="n">
-        <v>0.555</v>
+        <v>0.531</v>
       </c>
       <c r="H17" t="n">
-        <v>0.329</v>
+        <v>0.43</v>
       </c>
       <c r="I17" t="n">
-        <v>0.608</v>
+        <v>0.575</v>
       </c>
       <c r="J17" t="n">
-        <v>0.226</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="18">
@@ -964,25 +964,25 @@
         <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>0.763</v>
+        <v>0.828</v>
       </c>
       <c r="E18" t="n">
-        <v>0.133</v>
+        <v>0.331</v>
       </c>
       <c r="F18" t="n">
-        <v>0.588</v>
+        <v>0.531</v>
       </c>
       <c r="G18" t="n">
-        <v>0.552</v>
+        <v>0.505</v>
       </c>
       <c r="H18" t="n">
-        <v>0.239</v>
+        <v>0.376</v>
       </c>
       <c r="I18" t="n">
-        <v>0.623</v>
+        <v>0.578</v>
       </c>
       <c r="J18" t="n">
-        <v>0.152</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="19">
@@ -996,25 +996,25 @@
         <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>0.792</v>
+        <v>0.876</v>
       </c>
       <c r="E19" t="n">
-        <v>0.094</v>
+        <v>0.286</v>
       </c>
       <c r="F19" t="n">
-        <v>0.589</v>
+        <v>0.521</v>
       </c>
       <c r="G19" t="n">
-        <v>0.548</v>
+        <v>0.485</v>
       </c>
       <c r="H19" t="n">
-        <v>0.198</v>
+        <v>0.334</v>
       </c>
       <c r="I19" t="n">
-        <v>0.64</v>
+        <v>0.573</v>
       </c>
       <c r="J19" t="n">
-        <v>0.112</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="20">
@@ -1028,25 +1028,25 @@
         <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>0.839</v>
+        <v>0.918</v>
       </c>
       <c r="E20" t="n">
-        <v>0.057</v>
+        <v>0.249</v>
       </c>
       <c r="F20" t="n">
-        <v>0.592</v>
+        <v>0.514</v>
       </c>
       <c r="G20" t="n">
-        <v>0.555</v>
+        <v>0.478</v>
       </c>
       <c r="H20" t="n">
-        <v>0.156</v>
+        <v>0.302</v>
       </c>
       <c r="I20" t="n">
-        <v>0.648</v>
+        <v>0.571</v>
       </c>
       <c r="J20" t="n">
-        <v>0.08</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="21">
@@ -1060,25 +1060,25 @@
         <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>0.863</v>
+        <v>0.929</v>
       </c>
       <c r="E21" t="n">
-        <v>0.046</v>
+        <v>0.226</v>
       </c>
       <c r="F21" t="n">
-        <v>0.591</v>
+        <v>0.513</v>
       </c>
       <c r="G21" t="n">
-        <v>0.551</v>
+        <v>0.472</v>
       </c>
       <c r="H21" t="n">
-        <v>0.136</v>
+        <v>0.273</v>
       </c>
       <c r="I21" t="n">
-        <v>0.651</v>
+        <v>0.572</v>
       </c>
       <c r="J21" t="n">
-        <v>0.058</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="22">
@@ -1092,25 +1092,25 @@
         <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>0.894</v>
+        <v>0.95</v>
       </c>
       <c r="E22" t="n">
-        <v>0.032</v>
+        <v>0.208</v>
       </c>
       <c r="F22" t="n">
-        <v>0.594</v>
+        <v>0.509</v>
       </c>
       <c r="G22" t="n">
-        <v>0.542</v>
+        <v>0.452</v>
       </c>
       <c r="H22" t="n">
-        <v>0.109</v>
+        <v>0.256</v>
       </c>
       <c r="I22" t="n">
-        <v>0.67</v>
+        <v>0.562</v>
       </c>
       <c r="J22" t="n">
-        <v>0.043</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="23">
@@ -1124,25 +1124,25 @@
         <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>0.905</v>
+        <v>0.959</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02</v>
+        <v>0.199</v>
       </c>
       <c r="F23" t="n">
-        <v>0.601</v>
+        <v>0.503</v>
       </c>
       <c r="G23" t="n">
-        <v>0.533</v>
+        <v>0.446</v>
       </c>
       <c r="H23" t="n">
-        <v>0.094</v>
+        <v>0.237</v>
       </c>
       <c r="I23" t="n">
-        <v>0.669</v>
+        <v>0.571</v>
       </c>
       <c r="J23" t="n">
-        <v>0.039</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="24">
@@ -1156,25 +1156,25 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>0.394</v>
+        <v>0.499</v>
       </c>
       <c r="E24" t="n">
-        <v>0.408</v>
+        <v>0.463</v>
       </c>
       <c r="F24" t="n">
-        <v>0.666</v>
+        <v>0.512</v>
       </c>
       <c r="G24" t="n">
-        <v>0.683</v>
+        <v>0.678</v>
       </c>
       <c r="H24" t="n">
-        <v>0.543</v>
+        <v>0.484</v>
       </c>
       <c r="I24" t="n">
-        <v>0.629</v>
+        <v>0.773</v>
       </c>
       <c r="J24" t="n">
-        <v>0.463</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="25">
@@ -1188,25 +1188,25 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>0.483</v>
+        <v>0.525</v>
       </c>
       <c r="E25" t="n">
-        <v>0.484</v>
+        <v>0.511</v>
       </c>
       <c r="F25" t="n">
-        <v>0.626</v>
+        <v>0.541</v>
       </c>
       <c r="G25" t="n">
-        <v>0.63</v>
+        <v>0.638</v>
       </c>
       <c r="H25" t="n">
-        <v>0.568</v>
+        <v>0.533</v>
       </c>
       <c r="I25" t="n">
-        <v>0.609</v>
+        <v>0.708</v>
       </c>
       <c r="J25" t="n">
-        <v>0.522</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="26">
@@ -1220,25 +1220,25 @@
         <v>13</v>
       </c>
       <c r="D26" t="n">
-        <v>0.586</v>
+        <v>0.557</v>
       </c>
       <c r="E26" t="n">
-        <v>0.57</v>
+        <v>0.554</v>
       </c>
       <c r="F26" t="n">
-        <v>0.58</v>
+        <v>0.566</v>
       </c>
       <c r="G26" t="n">
-        <v>0.58</v>
+        <v>0.596</v>
       </c>
       <c r="H26" t="n">
-        <v>0.577</v>
+        <v>0.556</v>
       </c>
       <c r="I26" t="n">
-        <v>0.583</v>
+        <v>0.626</v>
       </c>
       <c r="J26" t="n">
-        <v>0.577</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="27">
@@ -1252,25 +1252,25 @@
         <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>0.676</v>
+        <v>0.604</v>
       </c>
       <c r="E27" t="n">
-        <v>0.657</v>
+        <v>0.613</v>
       </c>
       <c r="F27" t="n">
-        <v>0.548</v>
+        <v>0.598</v>
       </c>
       <c r="G27" t="n">
-        <v>0.537</v>
+        <v>0.559</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6</v>
+        <v>0.611</v>
       </c>
       <c r="I27" t="n">
-        <v>0.555</v>
+        <v>0.528</v>
       </c>
       <c r="J27" t="n">
-        <v>0.625</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="28">
@@ -1284,25 +1284,25 @@
         <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>0.77</v>
+        <v>0.642</v>
       </c>
       <c r="E28" t="n">
-        <v>0.727</v>
+        <v>0.673</v>
       </c>
       <c r="F28" t="n">
-        <v>0.507</v>
+        <v>0.635</v>
       </c>
       <c r="G28" t="n">
-        <v>0.497</v>
+        <v>0.515</v>
       </c>
       <c r="H28" t="n">
-        <v>0.615</v>
+        <v>0.659</v>
       </c>
       <c r="I28" t="n">
-        <v>0.533</v>
+        <v>0.433</v>
       </c>
       <c r="J28" t="n">
-        <v>0.68</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="29">
@@ -1316,25 +1316,25 @@
         <v>16</v>
       </c>
       <c r="D29" t="n">
-        <v>0.833</v>
+        <v>0.699</v>
       </c>
       <c r="E29" t="n">
-        <v>0.803</v>
+        <v>0.737</v>
       </c>
       <c r="F29" t="n">
-        <v>0.487</v>
+        <v>0.684</v>
       </c>
       <c r="G29" t="n">
-        <v>0.459</v>
+        <v>0.465</v>
       </c>
       <c r="H29" t="n">
-        <v>0.632</v>
+        <v>0.716</v>
       </c>
       <c r="I29" t="n">
-        <v>0.518</v>
+        <v>0.326</v>
       </c>
       <c r="J29" t="n">
-        <v>0.717</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="30">
@@ -1348,25 +1348,25 @@
         <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>0.908</v>
+        <v>0.767</v>
       </c>
       <c r="E30" t="n">
-        <v>0.863</v>
+        <v>0.83</v>
       </c>
       <c r="F30" t="n">
-        <v>0.462</v>
+        <v>0.735</v>
       </c>
       <c r="G30" t="n">
-        <v>0.434</v>
+        <v>0.408</v>
       </c>
       <c r="H30" t="n">
-        <v>0.641</v>
+        <v>0.788</v>
       </c>
       <c r="I30" t="n">
-        <v>0.495</v>
+        <v>0.223</v>
       </c>
       <c r="J30" t="n">
-        <v>0.755</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="31">
@@ -1380,25 +1380,25 @@
         <v>18</v>
       </c>
       <c r="D31" t="n">
-        <v>0.941</v>
+        <v>0.85</v>
       </c>
       <c r="E31" t="n">
-        <v>0.914</v>
+        <v>0.916</v>
       </c>
       <c r="F31" t="n">
-        <v>0.439</v>
+        <v>0.801</v>
       </c>
       <c r="G31" t="n">
-        <v>0.403</v>
+        <v>0.33</v>
       </c>
       <c r="H31" t="n">
-        <v>0.658</v>
+        <v>0.875</v>
       </c>
       <c r="I31" t="n">
-        <v>0.479</v>
+        <v>0.139</v>
       </c>
       <c r="J31" t="n">
-        <v>0.794</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="32">
@@ -1412,25 +1412,25 @@
         <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>0.968</v>
+        <v>0.929</v>
       </c>
       <c r="E32" t="n">
-        <v>0.94</v>
+        <v>0.977</v>
       </c>
       <c r="F32" t="n">
-        <v>0.412</v>
+        <v>0.883</v>
       </c>
       <c r="G32" t="n">
-        <v>0.377</v>
+        <v>0.257</v>
       </c>
       <c r="H32" t="n">
-        <v>0.663</v>
+        <v>0.945</v>
       </c>
       <c r="I32" t="n">
-        <v>0.464</v>
+        <v>0.077</v>
       </c>
       <c r="J32" t="n">
-        <v>0.822</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="33">
@@ -1444,25 +1444,25 @@
         <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>0.984</v>
+        <v>0.976</v>
       </c>
       <c r="E33" t="n">
-        <v>0.963</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.397</v>
+        <v>0.943</v>
       </c>
       <c r="G33" t="n">
-        <v>0.345</v>
+        <v>0.182</v>
       </c>
       <c r="H33" t="n">
-        <v>0.673</v>
+        <v>0.99</v>
       </c>
       <c r="I33" t="n">
-        <v>0.456</v>
+        <v>0.028</v>
       </c>
       <c r="J33" t="n">
-        <v>0.864</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1476,376 +1476,24 @@
         <v>21</v>
       </c>
       <c r="D34" t="n">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.981</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.372</v>
+        <v>0.988</v>
       </c>
       <c r="G34" t="n">
-        <v>0.327</v>
+        <v>0.115</v>
       </c>
       <c r="H34" t="n">
-        <v>0.682</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0.441</v>
+        <v>0.005</v>
       </c>
       <c r="J34" t="n">
-        <v>0.892</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="n">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.502</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.515</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.673</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.485</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.775</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.472</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" t="n">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.544</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.519</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.542</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.624</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.685</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.522</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="n">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.582</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.582</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.587</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.582</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.577</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" t="n">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.634</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.654</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.623</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.645</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.653</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" t="n">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.678</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.715</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.674</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.368</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.722</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" t="n">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.762</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.801</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.717</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.761</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.803</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="n">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.823</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.781</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.846</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.892</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" t="n">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.838</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.289</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.919</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" t="n">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.956</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.911</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.964</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" t="n">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.988</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.954</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.996</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" t="n">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.988</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="J45" t="n">
         <v>1</v>
       </c>
     </row>

--- a/output/sites/test_differences_nut_all_scenarios_Cap Noir.xlsx
+++ b/output/sites/test_differences_nut_all_scenarios_Cap Noir.xlsx
@@ -452,25 +452,25 @@
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.335</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.593</v>
+        <v>0.664</v>
       </c>
       <c r="G2" t="n">
-        <v>0.372</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.381</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.367</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -484,25 +484,25 @@
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.864</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.426</v>
+        <v>0.0054</v>
       </c>
       <c r="F3" t="n">
-        <v>0.587</v>
+        <v>0.6042</v>
       </c>
       <c r="G3" t="n">
-        <v>0.457</v>
+        <v>0.001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.45</v>
+        <v>0.0014</v>
       </c>
       <c r="I3" t="n">
-        <v>0.447</v>
+        <v>0.0004</v>
       </c>
       <c r="J3" t="n">
-        <v>0.417</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="4">
@@ -516,25 +516,25 @@
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.679</v>
+        <v>0.9694</v>
       </c>
       <c r="E4" t="n">
-        <v>0.523</v>
+        <v>0.1928</v>
       </c>
       <c r="F4" t="n">
-        <v>0.591</v>
+        <v>0.5374</v>
       </c>
       <c r="G4" t="n">
-        <v>0.548</v>
+        <v>0.1396</v>
       </c>
       <c r="H4" t="n">
-        <v>0.537</v>
+        <v>0.1534</v>
       </c>
       <c r="I4" t="n">
-        <v>0.533</v>
+        <v>0.1166</v>
       </c>
       <c r="J4" t="n">
-        <v>0.519</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="5">
@@ -548,25 +548,25 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.492</v>
+        <v>0.0318</v>
       </c>
       <c r="E5" t="n">
-        <v>0.631</v>
+        <v>0.8094</v>
       </c>
       <c r="F5" t="n">
-        <v>0.585</v>
+        <v>0.4798</v>
       </c>
       <c r="G5" t="n">
-        <v>0.628</v>
+        <v>0.8648</v>
       </c>
       <c r="H5" t="n">
-        <v>0.626</v>
+        <v>0.8488</v>
       </c>
       <c r="I5" t="n">
-        <v>0.637</v>
+        <v>0.8816</v>
       </c>
       <c r="J5" t="n">
-        <v>0.637</v>
+        <v>0.8396</v>
       </c>
     </row>
     <row r="6">
@@ -580,25 +580,25 @@
         <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.328</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.736</v>
+        <v>0.9948</v>
       </c>
       <c r="F6" t="n">
-        <v>0.576</v>
+        <v>0.4106</v>
       </c>
       <c r="G6" t="n">
-        <v>0.714</v>
+        <v>0.9992</v>
       </c>
       <c r="H6" t="n">
-        <v>0.707</v>
+        <v>0.9984</v>
       </c>
       <c r="I6" t="n">
-        <v>0.725</v>
+        <v>0.9998</v>
       </c>
       <c r="J6" t="n">
-        <v>0.751</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.838</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.572</v>
+        <v>0.351</v>
       </c>
       <c r="G7" t="n">
-        <v>0.786</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.792</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.803</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -644,25 +644,25 @@
         <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.923</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.566</v>
+        <v>0.2916</v>
       </c>
       <c r="G8" t="n">
-        <v>0.874</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.878</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.888</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -676,25 +676,25 @@
         <v>18</v>
       </c>
       <c r="D9" t="n">
-        <v>0.081</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.966</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.562</v>
+        <v>0.2486</v>
       </c>
       <c r="G9" t="n">
-        <v>0.926</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.942</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -708,25 +708,25 @@
         <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.56</v>
+        <v>0.2038</v>
       </c>
       <c r="G10" t="n">
-        <v>0.963</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.966</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.972</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -740,22 +740,22 @@
         <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.553</v>
+        <v>0.1652</v>
       </c>
       <c r="G11" t="n">
-        <v>0.987</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.987</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.994</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -772,19 +772,19 @@
         <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.552</v>
+        <v>0.1352</v>
       </c>
       <c r="G12" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -804,22 +804,22 @@
         <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.715</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.815</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.587</v>
+        <v>0.6228</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -836,25 +836,25 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>0.298</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.906</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.645</v>
+        <v>0.9866</v>
       </c>
       <c r="G14" t="n">
-        <v>0.692</v>
+        <v>0.9928</v>
       </c>
       <c r="H14" t="n">
-        <v>0.858</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.589</v>
+        <v>0.5614</v>
       </c>
       <c r="J14" t="n">
-        <v>0.917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -868,25 +868,25 @@
         <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>0.492</v>
+        <v>0.054</v>
       </c>
       <c r="E15" t="n">
-        <v>0.673</v>
+        <v>0.9314</v>
       </c>
       <c r="F15" t="n">
-        <v>0.599</v>
+        <v>0.7396</v>
       </c>
       <c r="G15" t="n">
-        <v>0.611</v>
+        <v>0.7392</v>
       </c>
       <c r="H15" t="n">
-        <v>0.659</v>
+        <v>0.959</v>
       </c>
       <c r="I15" t="n">
-        <v>0.576</v>
+        <v>0.5216</v>
       </c>
       <c r="J15" t="n">
-        <v>0.675</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="16">
@@ -900,25 +900,25 @@
         <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>0.652</v>
+        <v>0.9164</v>
       </c>
       <c r="E16" t="n">
-        <v>0.509</v>
+        <v>0.12</v>
       </c>
       <c r="F16" t="n">
-        <v>0.565</v>
+        <v>0.3152</v>
       </c>
       <c r="G16" t="n">
-        <v>0.564</v>
+        <v>0.2912</v>
       </c>
       <c r="H16" t="n">
-        <v>0.522</v>
+        <v>0.0806</v>
       </c>
       <c r="I16" t="n">
-        <v>0.581</v>
+        <v>0.4844</v>
       </c>
       <c r="J16" t="n">
-        <v>0.503</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="17">
@@ -932,25 +932,25 @@
         <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>0.756</v>
+        <v>0.9998</v>
       </c>
       <c r="E17" t="n">
-        <v>0.398</v>
+        <v>0.002</v>
       </c>
       <c r="F17" t="n">
-        <v>0.547</v>
+        <v>0.1166</v>
       </c>
       <c r="G17" t="n">
-        <v>0.531</v>
+        <v>0.0932</v>
       </c>
       <c r="H17" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.575</v>
+        <v>0.4714</v>
       </c>
       <c r="J17" t="n">
-        <v>0.399</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="18">
@@ -964,25 +964,25 @@
         <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>0.828</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.331</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.531</v>
+        <v>0.0324</v>
       </c>
       <c r="G18" t="n">
-        <v>0.505</v>
+        <v>0.0306</v>
       </c>
       <c r="H18" t="n">
-        <v>0.376</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.578</v>
+        <v>0.4438</v>
       </c>
       <c r="J18" t="n">
-        <v>0.327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -996,25 +996,25 @@
         <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>0.876</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.521</v>
+        <v>0.015</v>
       </c>
       <c r="G19" t="n">
-        <v>0.485</v>
+        <v>0.0066</v>
       </c>
       <c r="H19" t="n">
-        <v>0.334</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.573</v>
+        <v>0.436</v>
       </c>
       <c r="J19" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1028,25 +1028,25 @@
         <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>0.918</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.249</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.514</v>
+        <v>0.0066</v>
       </c>
       <c r="G20" t="n">
-        <v>0.478</v>
+        <v>0.0052</v>
       </c>
       <c r="H20" t="n">
-        <v>0.302</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.571</v>
+        <v>0.418</v>
       </c>
       <c r="J20" t="n">
-        <v>0.238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1060,25 +1060,25 @@
         <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>0.929</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.226</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.513</v>
+        <v>0.0028</v>
       </c>
       <c r="G21" t="n">
-        <v>0.472</v>
+        <v>0.0018</v>
       </c>
       <c r="H21" t="n">
-        <v>0.273</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.572</v>
+        <v>0.4118</v>
       </c>
       <c r="J21" t="n">
-        <v>0.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1092,25 +1092,25 @@
         <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.208</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.509</v>
+        <v>0.0014</v>
       </c>
       <c r="G22" t="n">
-        <v>0.452</v>
+        <v>0.0012</v>
       </c>
       <c r="H22" t="n">
-        <v>0.256</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.562</v>
+        <v>0.4076</v>
       </c>
       <c r="J22" t="n">
-        <v>0.202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1124,25 +1124,25 @@
         <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>0.959</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.503</v>
+        <v>0.0006</v>
       </c>
       <c r="G23" t="n">
-        <v>0.446</v>
+        <v>0.0004</v>
       </c>
       <c r="H23" t="n">
-        <v>0.237</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.571</v>
+        <v>0.3916</v>
       </c>
       <c r="J23" t="n">
-        <v>0.188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1156,25 +1156,25 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>0.499</v>
+        <v>0.0542</v>
       </c>
       <c r="E24" t="n">
-        <v>0.463</v>
+        <v>0.0358</v>
       </c>
       <c r="F24" t="n">
-        <v>0.512</v>
+        <v>0.0056</v>
       </c>
       <c r="G24" t="n">
-        <v>0.678</v>
+        <v>0.9802</v>
       </c>
       <c r="H24" t="n">
-        <v>0.484</v>
+        <v>0.0124</v>
       </c>
       <c r="I24" t="n">
-        <v>0.773</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0.471</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="25">
@@ -1188,25 +1188,25 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>0.525</v>
+        <v>0.1484</v>
       </c>
       <c r="E25" t="n">
-        <v>0.511</v>
+        <v>0.119</v>
       </c>
       <c r="F25" t="n">
-        <v>0.541</v>
+        <v>0.0456</v>
       </c>
       <c r="G25" t="n">
-        <v>0.638</v>
+        <v>0.9116</v>
       </c>
       <c r="H25" t="n">
-        <v>0.533</v>
+        <v>0.079</v>
       </c>
       <c r="I25" t="n">
-        <v>0.708</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.511</v>
+        <v>0.1112</v>
       </c>
     </row>
     <row r="26">
@@ -1220,25 +1220,25 @@
         <v>13</v>
       </c>
       <c r="D26" t="n">
-        <v>0.557</v>
+        <v>0.3454</v>
       </c>
       <c r="E26" t="n">
-        <v>0.554</v>
+        <v>0.334</v>
       </c>
       <c r="F26" t="n">
-        <v>0.566</v>
+        <v>0.2738</v>
       </c>
       <c r="G26" t="n">
-        <v>0.596</v>
+        <v>0.6912</v>
       </c>
       <c r="H26" t="n">
-        <v>0.556</v>
+        <v>0.3058</v>
       </c>
       <c r="I26" t="n">
-        <v>0.626</v>
+        <v>0.8802</v>
       </c>
       <c r="J26" t="n">
-        <v>0.553</v>
+        <v>0.3306</v>
       </c>
     </row>
     <row r="27">
@@ -1252,25 +1252,25 @@
         <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>0.604</v>
+        <v>0.6526</v>
       </c>
       <c r="E27" t="n">
-        <v>0.613</v>
+        <v>0.6684</v>
       </c>
       <c r="F27" t="n">
-        <v>0.598</v>
+        <v>0.7344</v>
       </c>
       <c r="G27" t="n">
-        <v>0.559</v>
+        <v>0.3118</v>
       </c>
       <c r="H27" t="n">
-        <v>0.611</v>
+        <v>0.7106</v>
       </c>
       <c r="I27" t="n">
-        <v>0.528</v>
+        <v>0.1264</v>
       </c>
       <c r="J27" t="n">
-        <v>0.611</v>
+        <v>0.6824</v>
       </c>
     </row>
     <row r="28">
@@ -1284,25 +1284,25 @@
         <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>0.642</v>
+        <v>0.913</v>
       </c>
       <c r="E28" t="n">
-        <v>0.673</v>
+        <v>0.9252</v>
       </c>
       <c r="F28" t="n">
-        <v>0.635</v>
+        <v>0.98</v>
       </c>
       <c r="G28" t="n">
-        <v>0.515</v>
+        <v>0.0504</v>
       </c>
       <c r="H28" t="n">
-        <v>0.659</v>
+        <v>0.9592</v>
       </c>
       <c r="I28" t="n">
-        <v>0.433</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.674</v>
+        <v>0.9376</v>
       </c>
     </row>
     <row r="29">
@@ -1316,25 +1316,25 @@
         <v>16</v>
       </c>
       <c r="D29" t="n">
-        <v>0.699</v>
+        <v>0.9938</v>
       </c>
       <c r="E29" t="n">
-        <v>0.737</v>
+        <v>0.9958</v>
       </c>
       <c r="F29" t="n">
-        <v>0.684</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0.465</v>
+        <v>0.0016</v>
       </c>
       <c r="H29" t="n">
-        <v>0.716</v>
+        <v>0.9994</v>
       </c>
       <c r="I29" t="n">
-        <v>0.326</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.737</v>
+        <v>0.9976</v>
       </c>
     </row>
     <row r="30">
@@ -1348,25 +1348,25 @@
         <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>0.767</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.83</v>
+        <v>0.9998</v>
       </c>
       <c r="F30" t="n">
-        <v>0.735</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.408</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.788</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.223</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1380,25 +1380,25 @@
         <v>18</v>
       </c>
       <c r="D31" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.916</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.801</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.139</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1412,25 +1412,25 @@
         <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>0.929</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.977</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.883</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.257</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.945</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.077</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.976</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1444,22 +1444,22 @@
         <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>0.976</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.943</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0.182</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -1482,16 +1482,16 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.988</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
